--- a/AAII_Financials/Quarterly/EV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>EV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>452600</v>
+      </c>
+      <c r="E8" s="3">
         <v>433700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>431200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>411900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>406400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>430800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>428700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>412700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>420200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>405700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>393700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>374600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>355000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E9" s="3">
         <v>72800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>71800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>67400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>68600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>73400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>73100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>70700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>73000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>65800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>58000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>376900</v>
+      </c>
+      <c r="E10" s="3">
         <v>360900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>359400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>344500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>337800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>357400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>355600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>342000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>347200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>344000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>327900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>314800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>297000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>291700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,16 +986,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -986,26 +1006,26 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>5400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1013,13 +1033,16 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1100</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>1100</v>
@@ -1028,10 +1051,10 @@
         <v>1100</v>
       </c>
       <c r="G15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H15" s="3">
         <v>1800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2200</v>
       </c>
       <c r="I15" s="3">
         <v>2200</v>
@@ -1051,14 +1074,17 @@
       <c r="N15" s="3">
         <v>2200</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>2200</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>317800</v>
+      </c>
+      <c r="E17" s="3">
         <v>298300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>294100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>284700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>285300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>286300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>286400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>280000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>284400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>267300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>278100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>256700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>249500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>235700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E18" s="3">
         <v>135400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>137100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>127200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>121100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>144500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>142300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>132700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>135800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>138400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>115600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>117900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>105500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>111100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E20" s="3">
         <v>40000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>33100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>37000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>171900</v>
+      </c>
+      <c r="E21" s="3">
         <v>181000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>176100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>169700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>139000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>163700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>157200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>140900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>145400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>147400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>125000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>133000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>110400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E22" s="3">
         <v>24300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E23" s="3">
         <v>151000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>142600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>147500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>117900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>139500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>142200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>127300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>134100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>136500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>115000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>119100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>104600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E24" s="3">
         <v>34300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>36300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>37200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E26" s="3">
         <v>116800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>106300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>110400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>90300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>102000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>105000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>93300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>110200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>86600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>72500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>74500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>61800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E27" s="3">
         <v>109200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>102200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>101800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>86800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>104800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>101800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>96600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>102700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>82100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>72000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1632,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1592,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>700</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-24700</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-40000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-33100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-37000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E33" s="3">
         <v>109200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>102200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>101800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>86800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>105500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>101800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>96600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>78100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>82100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>72000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E35" s="3">
         <v>109200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>102200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>101800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>86800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>105500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>101800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>96600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>78100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>82100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>72000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>565600</v>
+      </c>
+      <c r="E41" s="3">
         <v>606400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>615500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>586700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>495100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>817300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>650900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>513300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>533800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>610600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>550200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>663500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>320100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>237600</v>
+      </c>
+      <c r="E43" s="3">
         <v>237900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>234100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>235500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>223900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>236700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>219000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>205900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>213500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>201800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>191300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>186300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>186200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2333,152 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2390700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2770000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2755400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2217300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2061700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1957900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1666500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1229200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1111300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>934500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>755200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>755100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>710200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1008300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>337900</v>
+      </c>
+      <c r="E48" s="3">
         <v>72800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>70500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>70200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>52400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>51100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>47200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>45000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>334600</v>
+      </c>
+      <c r="E49" s="3">
         <v>335600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>336600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>337700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>338700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>340600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>342800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>345000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>347300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>349500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>351700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>354000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>344600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>294900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E52" s="3">
         <v>117900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>89500</v>
       </c>
       <c r="F52" s="3">
         <v>89500</v>
       </c>
       <c r="G52" s="3">
+        <v>89500</v>
+      </c>
+      <c r="H52" s="3">
         <v>91000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>94500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>88200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>80900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>77000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>103500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>99100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>97000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4048400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4253600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4218900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3633200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3336100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3599300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3086200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2498200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2397000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2330900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2074000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2167100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1758600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1730400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E57" s="3">
         <v>90000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>78500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>87800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>80000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>91400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>83700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>77200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>73700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>68100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>70900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>64500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>67700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,29 +2808,29 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>151800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>68500</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>145700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>89700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12600</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -2707,52 +2841,58 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>455700</v>
+      </c>
+      <c r="E59" s="3">
         <v>295900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>227100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>171200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>126200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>285600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>219400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>164300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>123400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>252000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>190800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>138200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>102300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>210000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +2935,58 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1838900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2237600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2240900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1477100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1460800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1492700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1084800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>619300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>619100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>618800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>618600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>868300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>571900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>571800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2803400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3069500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3090500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2544200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2268400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2491900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1980900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1405700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1297800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1319500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1172800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1379300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1015500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1026600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1310600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1250400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1195800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1158000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1131100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1150700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1086100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1021000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>961500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>921200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>875900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>841100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>801500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>773000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1245000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1184100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1128400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1089000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1067700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1107400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1105400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1092500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1099300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1011400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>901200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>787700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>743100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>703800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E81" s="3">
         <v>109200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>102200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>101800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>86800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>105500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>101800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>96600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>78100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>82100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>72000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E83" s="3">
         <v>5700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>6600</v>
       </c>
       <c r="H83" s="3">
         <v>6600</v>
       </c>
       <c r="I83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J83" s="3">
         <v>6000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E89" s="3">
         <v>131900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>160300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>185300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>121300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>227700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>70000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-59200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>78000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>54200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-33400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>64100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-5100</v>
       </c>
       <c r="J91" s="3">
         <v>-5100</v>
       </c>
       <c r="K91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-260600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-84600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-283100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-172500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-38000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-38600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-39300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-43200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-35300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-35800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-36200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-37500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-31600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-31200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-31300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-31700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-143700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>181600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-75000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>229300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-41700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-29200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>26000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>113700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-193300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>305500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-57300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>79300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>87800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-322600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>176700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>135100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-76500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>60400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-113300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>343300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-104100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>46000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>EV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>405900</v>
+      </c>
+      <c r="E8" s="3">
         <v>452600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>433700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>431200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>411900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>406400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>430800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>428700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>412700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>420200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>405700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>393700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>374600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>355000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E9" s="3">
         <v>75700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>72800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>71800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>67400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>68600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>73400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>73100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>70700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>73000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>61700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>65800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>58000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>339400</v>
+      </c>
+      <c r="E10" s="3">
         <v>376900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>360900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>359400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>344500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>337800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>357400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>355600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>342000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>347200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>344000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>327900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>314800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>297000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>291700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,19 +1005,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1009,26 +1028,26 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>5400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1036,16 +1055,19 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>1100</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>1100</v>
@@ -1054,10 +1076,10 @@
         <v>1100</v>
       </c>
       <c r="H15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I15" s="3">
         <v>1800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2200</v>
       </c>
       <c r="J15" s="3">
         <v>2200</v>
@@ -1077,14 +1099,17 @@
       <c r="O15" s="3">
         <v>2200</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>2200</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E17" s="3">
         <v>317800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>298300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>294100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>284700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>285300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>286300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>286400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>280000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>284400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>267300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>278100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>256700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>249500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>235700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E18" s="3">
         <v>134800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>135400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>137100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>127200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>121100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>144500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>142300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>132700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>135800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>138400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>115600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>117900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>105500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>111100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="E20" s="3">
         <v>31600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>40000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>33100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>37000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E21" s="3">
         <v>171900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>181000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>176100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>169700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>139000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>163700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>157200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>140900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>145400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>147400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>125000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>133000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>110400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E22" s="3">
         <v>23300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E23" s="3">
         <v>143100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>151000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>142600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>147500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>117900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>139500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>142200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>127300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>134100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>136500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>115000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>119100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>98600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>104600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E24" s="3">
         <v>32600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>37500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>37200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>44700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E26" s="3">
         <v>110500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>116800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>106300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>110400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>90300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>102000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>105000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>110200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>86600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>72500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>74500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>61800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E27" s="3">
         <v>104000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>109200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>102200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>101800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>86800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>104800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>101800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>96600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>102700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>82100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>67400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>72000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,16 +1692,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1656,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>700</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-24700</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-31600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-40000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-33100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-37000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E33" s="3">
         <v>104000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>109200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>102200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>101800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>86800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>105500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>101800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>96600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>78100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>82100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>67400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>72000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E35" s="3">
         <v>104000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>109200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>102200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>101800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>86800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>105500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>101800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>96600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>78100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>82100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>67400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>72000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>956900</v>
+      </c>
+      <c r="E41" s="3">
         <v>565600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>606400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>615500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>586700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>495100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>817300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>650900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>513300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>533800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>610600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>550200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>663500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>320100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>219900</v>
+      </c>
+      <c r="E43" s="3">
         <v>237600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>237900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>234100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>235500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>223900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>236700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>219000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>205900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>213500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>201800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>191300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>186300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>186200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,149 +2437,161 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1775700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2390700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2770000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2755400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2217300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2061700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1957900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1666500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1229200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1111300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>934500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>755200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>755100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>710200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1008300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>333500</v>
+      </c>
+      <c r="E48" s="3">
         <v>337900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>70500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>70200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>52400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>51100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>47200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>45000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>333600</v>
+      </c>
+      <c r="E49" s="3">
         <v>334600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>335600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>336600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>337700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>338700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>340600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>342800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>345000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>347300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>349500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>351700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>354000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>344600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>294900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E52" s="3">
         <v>103200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>117900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>89500</v>
       </c>
       <c r="G52" s="3">
         <v>89500</v>
       </c>
       <c r="H52" s="3">
+        <v>89500</v>
+      </c>
+      <c r="I52" s="3">
         <v>91000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>94500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>88200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>80900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>77000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>103500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>99100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>97000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3846700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4048400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4253600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4218900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3633200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3336100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3599300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3086200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2498200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2397000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2330900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2074000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2167100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1758600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1730400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E57" s="3">
         <v>79900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>78500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>87800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>80000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>91400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>83700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>77200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>73700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>68100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>70900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>64500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>67700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2811,29 +2944,29 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>151800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>68500</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>145700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>89700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12600</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -2844,55 +2977,61 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>486700</v>
+      </c>
+      <c r="E59" s="3">
         <v>455700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>295900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>227100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>171200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>126200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>285600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>219400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>164300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>123400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>252000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>190800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>138200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>102300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>210000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,55 +3077,61 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1709500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1838900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2237600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2240900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1477100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1460800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1492700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1084800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>619300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>619100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>618800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>618600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>868300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>571900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>571800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2569600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2803400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3069500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3090500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2544200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2268400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2491900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1980900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1405700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1297800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1319500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1172800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1379300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1015500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1026600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1340600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1310600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1250400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1195800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1158000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1131100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1150700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1086100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1021000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>961500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>921200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>875900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>841100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>801500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>773000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1277100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1245000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1184100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1128400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1089000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1067700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1107400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1105400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1092500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1099300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1011400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>901200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>787700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>743100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>703800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E81" s="3">
         <v>104000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>109200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>102200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>101800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>86800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>105500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>101800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>96600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>78100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>82100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>67400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>72000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>5500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>6600</v>
       </c>
       <c r="I83" s="3">
         <v>6600</v>
       </c>
       <c r="J83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K83" s="3">
         <v>6000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>379400</v>
+      </c>
+      <c r="E89" s="3">
         <v>17700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>131900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>160300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>185300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>34300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>121300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>227700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>70000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-59200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>78000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>54200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>64100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-5100</v>
       </c>
       <c r="K91" s="3">
         <v>-5100</v>
       </c>
       <c r="L91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E94" s="3">
         <v>5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-47600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-260600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-84600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-283100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-172500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-48600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-47000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-30800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-45500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-38000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-38600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-39300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-43200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-35300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-35800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-36200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-37500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-31600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-31200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-31300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-143700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>181600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-75000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>229300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-41700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>26000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>113700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-193300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>305500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>417300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>79300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>87800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-322600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>176700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>135100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-76500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-113300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>343300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-104100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>46000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>EV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>420800</v>
+      </c>
+      <c r="E8" s="3">
         <v>405900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>452600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>433700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>431200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>411900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>406400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>430800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>428700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>412700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>420200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>405700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>393700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>374600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>355000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E9" s="3">
         <v>66500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>75700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>72800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>71800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>67400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>68600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>73400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>73100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>70700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>73000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>65800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>58000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>55100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E10" s="3">
         <v>339400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>376900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>360900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>359400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>344500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>337800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>357400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>355600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>342000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>347200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>344000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>327900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>314800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>297000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>291700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,11 +1039,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1031,26 +1051,26 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>5400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1069,8 +1092,8 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>1100</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>1100</v>
@@ -1079,10 +1102,10 @@
         <v>1100</v>
       </c>
       <c r="I15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J15" s="3">
         <v>1800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2200</v>
       </c>
       <c r="K15" s="3">
         <v>2200</v>
@@ -1102,14 +1125,17 @@
       <c r="P15" s="3">
         <v>2200</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>2200</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>289600</v>
+      </c>
+      <c r="E17" s="3">
         <v>284000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>317800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>298300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>294100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>284700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>285300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>286300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>286400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>280000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>284400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>267300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>278100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>256700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>249500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>235700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E18" s="3">
         <v>121900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>134800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>135400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>137100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>127200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>121100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>144500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>142300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>132700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>135800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>138400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>115600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>117900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>105500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>111100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-55300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>31600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>40000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>33100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>37000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>185300</v>
+      </c>
+      <c r="E21" s="3">
         <v>72500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>171900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>181000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>176100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>169700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>139000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>163700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>157200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>140900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>145400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>147400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>133000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>110400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E22" s="3">
         <v>18000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>163500</v>
+      </c>
+      <c r="E23" s="3">
         <v>48600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>143100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>151000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>142600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>147500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>117900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>139500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>142200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>127300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>134100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>136500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>115000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>119100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>104600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E24" s="3">
         <v>22000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>34300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>37500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>49800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E26" s="3">
         <v>26600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>110500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>116800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>106300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>110400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>90300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>102000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>105000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>110200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>86600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>72500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>74500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>61800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>63800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>72100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>104000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>109200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>102200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>101800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>86800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>104800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>101800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>96600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>102700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>82100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>67400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>72000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1706,8 +1767,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1719,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-24700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E32" s="3">
         <v>55300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-31600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-40000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-33100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-37000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>72100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>104000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>109200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>102200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>101800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>86800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>105500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>101800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>96600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>78100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>82100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>67400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>72000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>72100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>104000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>109200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>102200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>101800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>86800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>105500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>101800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>96600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>78100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>82100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>67400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>72000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>930700</v>
+      </c>
+      <c r="E41" s="3">
         <v>956900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>565600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>606400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>615500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>586700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>495100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>817300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>650900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>513300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>533800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>610600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>550200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>663500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>320100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>424200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E43" s="3">
         <v>219900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>237600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>237900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>234100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>235500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>223900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>236700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>219000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>205900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>213500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>201800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>191300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>186300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>186200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,158 +2542,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2147100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1775700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2390700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2770000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2755400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2217300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2061700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1957900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1666500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1229200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1111300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>934500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>755200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>755100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>710200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1008300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E48" s="3">
         <v>333500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>337900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>70500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>70200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>52400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>47200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>45000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>332600</v>
+      </c>
+      <c r="E49" s="3">
         <v>333600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>334600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>335600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>336600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>337700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>338700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>340600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>342800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>345000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>347300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>349500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>351700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>354000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>344600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>294900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E52" s="3">
         <v>120700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>103200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>117900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>89500</v>
       </c>
       <c r="H52" s="3">
         <v>89500</v>
       </c>
       <c r="I52" s="3">
+        <v>89500</v>
+      </c>
+      <c r="J52" s="3">
         <v>91000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>94500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>88200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>80900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>77000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>103500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>99100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>97000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4182400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3846700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4048400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4253600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4218900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3633200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3336100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3599300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3086200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2498200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2397000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2330900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2074000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2167100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1758600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1730400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E57" s="3">
         <v>72400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>79900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>78500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>87800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>80000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>91400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>83700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>77200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>73700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>68100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>70900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>64500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>67700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2947,29 +3081,29 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>151800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>68500</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>145700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>89700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>36500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12600</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -2980,58 +3114,64 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>535400</v>
+      </c>
+      <c r="E59" s="3">
         <v>486700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>455700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>295900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>227100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>171200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>126200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>285600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>219400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>164300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>123400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>252000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>190800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>138200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>102300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>210000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,58 +3220,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1791900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1709500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1838900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2237600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2240900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1477100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1460800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1492700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1084800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>619300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>619100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>618800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>618600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>868300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>571900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>571800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2907100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2569600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2803400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3069500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3090500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2544200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2268400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2491900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1980900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1405700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1297800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1319500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1172800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1379300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1015500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1026600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1296000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1340600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1310600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1250400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1195800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1158000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1131100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1150700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1086100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1021000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>961500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>921200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>875900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>841100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>801500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>773000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1275300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1277100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1245000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1184100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1128400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1089000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1067700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1107400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1105400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1092500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1099300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1011400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>901200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>787700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>743100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>703800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>72100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>104000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>109200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>102200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>101800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>86800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>105500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>101800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>96600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>78100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>82100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>67400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>72000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>6600</v>
       </c>
       <c r="J83" s="3">
         <v>6600</v>
       </c>
       <c r="K83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L83" s="3">
         <v>6000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-142300</v>
+      </c>
+      <c r="E89" s="3">
         <v>379400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>131900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>160300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>185300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>121300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>227700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>70000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-59200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>78000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>54200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-33400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>64100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-5100</v>
       </c>
       <c r="L91" s="3">
         <v>-5100</v>
       </c>
       <c r="M91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E94" s="3">
         <v>22700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-47600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-260600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-84600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-283100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-172500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-47000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-41700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-45500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-38000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-38600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-39300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-43200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-35300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-35800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-36200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-37500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-31600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-31200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-31700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E100" s="3">
         <v>18700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-55700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-143700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>181600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-75000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>229300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-41700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>26000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>113700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-193300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>305500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E102" s="3">
         <v>417300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-32500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>79300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>87800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-322600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>176700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>135100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-76500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>60400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-113300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>343300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-104100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46000</v>
       </c>
     </row>
